--- a/bot_unemployment_scrap/report/population_final_report.xlsx
+++ b/bot_unemployment_scrap/report/population_final_report.xlsx
@@ -513,14 +513,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C4" t="n">
         <v>342</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -559,14 +559,14 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>273</v>
+      </c>
+      <c r="C6" t="n">
         <v>270</v>
       </c>
-      <c r="C6" t="n">
-        <v>266</v>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -697,14 +697,14 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>83.16</v>
+      </c>
+      <c r="C12" t="n">
         <v>83.17</v>
       </c>
-      <c r="C12" t="n">
-        <v>83.02</v>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -720,14 +720,14 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.29000000000001</v>
+        <v>67.63</v>
       </c>
       <c r="C13" t="n">
-        <v>67.14</v>
+        <v>67.45</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -743,14 +743,14 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>67.53</v>
+      </c>
+      <c r="C14" t="n">
         <v>67.08</v>
       </c>
-      <c r="C14" t="n">
-        <v>66.8</v>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -762,18 +762,18 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Itália</t>
+          <t>África Do Sul</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59.64</v>
+        <v>60.14</v>
       </c>
       <c r="C15" t="n">
-        <v>59.82</v>
+        <v>59.3</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -785,18 +785,18 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>África Do Sul</t>
+          <t>Itália</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59.3</v>
+        <v>59.24</v>
       </c>
       <c r="C16" t="n">
-        <v>58.8</v>
+        <v>59.64</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -812,14 +812,14 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>51.78</v>
+        <v>51.74</v>
       </c>
       <c r="C17" t="n">
-        <v>51.71</v>
+        <v>51.84</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -835,14 +835,14 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="C18" t="n">
         <v>47.33</v>
       </c>
-      <c r="C18" t="n">
-        <v>46.94</v>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -950,14 +950,14 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>17.48</v>
+      </c>
+      <c r="C23" t="n">
         <v>17.41</v>
       </c>
-      <c r="C23" t="n">
-        <v>17.28</v>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -973,14 +973,14 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="C24" t="n">
         <v>8.609999999999999</v>
       </c>
-      <c r="C24" t="n">
-        <v>8.539999999999999</v>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -996,14 +996,14 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.7</v>
+        <v>5.45</v>
       </c>
       <c r="C25" t="n">
-        <v>5.7</v>
+        <v>5.68</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
